--- a/src/main/resources/report.xlsx
+++ b/src/main/resources/report.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siarheilabotski/WORK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siarheilabotski/WORK/falcon-notifier/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF1A792-91B3-BE47-B9D4-E5DD05A1EB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60995736-508A-034E-BC68-51AFB9F2566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{57F34893-E586-9F46-863A-7AFAC0278D8E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>

--- a/src/main/resources/report.xlsx
+++ b/src/main/resources/report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siarheilabotski/WORK/falcon-notifier/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siarheilabotski/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60995736-508A-034E-BC68-51AFB9F2566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E1FCB5E-A6A6-AF4E-B061-702EDAF98A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{57F34893-E586-9F46-863A-7AFAC0278D8E}"/>
+    <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{B1B008DA-835E-7D40-B3E7-181C312B2BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,161 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>CASE_HISTORY_ID</t>
+  </si>
+  <si>
+    <t>CASE_ID</t>
+  </si>
+  <si>
+    <t>TENANT_CD</t>
+  </si>
+  <si>
+    <t>CASE_REFERENCE_NUM</t>
+  </si>
+  <si>
+    <t>CASE_LEVEL_CD</t>
+  </si>
+  <si>
+    <t>CASE_TYPEV2_CD</t>
+  </si>
+  <si>
+    <t>CLIENT_XID</t>
+  </si>
+  <si>
+    <t>ACTION_DTTM</t>
+  </si>
+  <si>
+    <t>FRAUD_TYPE_CD</t>
+  </si>
+  <si>
+    <t>QUEUE_NAME</t>
+  </si>
+  <si>
+    <t>CASE_STATUS_TYPE_CD</t>
+  </si>
+  <si>
+    <t>CASE_STATUS_CD</t>
+  </si>
+  <si>
+    <t>ACTION_USER_PARTY_ID</t>
+  </si>
+  <si>
+    <t>ACCOUNT_REFERENCE_XID</t>
+  </si>
+  <si>
+    <t>CASE_ACTION_CD1</t>
+  </si>
+  <si>
+    <t>CASE_ACTION_CD2</t>
+  </si>
+  <si>
+    <t>CASE_ACTION_CD3</t>
+  </si>
+  <si>
+    <t>CASE_CREATED_DTTM</t>
+  </si>
+  <si>
+    <t>CASE_OPENED_DTTM</t>
+  </si>
+  <si>
+    <t>PROTECTED_AMT</t>
+  </si>
+  <si>
+    <t>CREATE_OPEN_LOSS_AMT</t>
+  </si>
+  <si>
+    <t>OPEN_CLOSED_LOSS_AMT</t>
+  </si>
+  <si>
+    <t>CLOSED_LOSS_AMT</t>
+  </si>
+  <si>
+    <t>USER_PARTY_ID</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>ACTIVE_TENANT_CD</t>
+  </si>
+  <si>
+    <t>CREATED_DTTM</t>
+  </si>
+  <si>
+    <t>CREATED_BY_USER_ID</t>
+  </si>
+  <si>
+    <t>CREATED_BY_MODULE_CD</t>
+  </si>
+  <si>
+    <t>LAST_UPDATED_DTTM</t>
+  </si>
+  <si>
+    <t>LAST_UPDATED_BY_USER_ID</t>
+  </si>
+  <si>
+    <t>ROW_VERSION_SEQ</t>
+  </si>
+  <si>
+    <t>ROW_STATUS_CD</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>LOCALE_CD</t>
+  </si>
+  <si>
+    <t>TIME_ZONE_CD</t>
+  </si>
+  <si>
+    <t>SUPERVISOR_ID</t>
+  </si>
+  <si>
+    <t>SUPERVISOR_FLG</t>
+  </si>
+  <si>
+    <t>DEFAULT_TENANT_CD</t>
+  </si>
+  <si>
+    <t>DEFAULT_LOCALE_CD</t>
+  </si>
+  <si>
+    <t>PREFERRED_THEME_NAME</t>
+  </si>
+  <si>
+    <t>PRI_WORK_GRP_ID</t>
+  </si>
+  <si>
+    <t>CLIENT_XID_1</t>
+  </si>
+  <si>
+    <t>STARTING_PAGE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,8 +211,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,13 +527,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF16966-E33C-E541-8A15-05DA158BE9EE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF232C9-EDBD-3A46-8F44-0966CFFE026F}">
+  <dimension ref="A1:AS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>